--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Ccr2</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.369946853309931</v>
+        <v>0.4541726666666667</v>
       </c>
       <c r="H2">
-        <v>0.369946853309931</v>
+        <v>1.362518</v>
       </c>
       <c r="I2">
-        <v>0.004480245833754927</v>
+        <v>0.005326894406580251</v>
       </c>
       <c r="J2">
-        <v>0.004480245833754927</v>
+        <v>0.00532689440658025</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0818483001015924</v>
+        <v>0.1152486666666667</v>
       </c>
       <c r="N2">
-        <v>0.0818483001015924</v>
+        <v>0.345746</v>
       </c>
       <c r="O2">
-        <v>0.0002803303714269286</v>
+        <v>0.0002846832990270826</v>
       </c>
       <c r="P2">
-        <v>0.0002803303714269286</v>
+        <v>0.0002846832990270825</v>
       </c>
       <c r="Q2">
-        <v>0.03027952107135101</v>
+        <v>0.05234279426977778</v>
       </c>
       <c r="R2">
-        <v>0.03027952107135101</v>
+        <v>0.471085148428</v>
       </c>
       <c r="S2">
-        <v>1.255948978660468E-06</v>
+        <v>1.516477873234179E-06</v>
       </c>
       <c r="T2">
-        <v>1.255948978660468E-06</v>
+        <v>1.516477873234178E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.369946853309931</v>
+        <v>0.4541726666666667</v>
       </c>
       <c r="H3">
-        <v>0.369946853309931</v>
+        <v>1.362518</v>
       </c>
       <c r="I3">
-        <v>0.004480245833754927</v>
+        <v>0.005326894406580251</v>
       </c>
       <c r="J3">
-        <v>0.004480245833754927</v>
+        <v>0.00532689440658025</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>94.2624317428959</v>
+        <v>0.006638666666666667</v>
       </c>
       <c r="N3">
-        <v>94.2624317428959</v>
+        <v>0.019916</v>
       </c>
       <c r="O3">
-        <v>0.3228487637408783</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="P3">
-        <v>0.3228487637408783</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="Q3">
-        <v>34.87209000862649</v>
+        <v>0.003015100943111112</v>
       </c>
       <c r="R3">
-        <v>34.87209000862649</v>
+        <v>0.027135908488</v>
       </c>
       <c r="S3">
-        <v>0.001446441828682999</v>
+        <v>8.735364493973007E-08</v>
       </c>
       <c r="T3">
-        <v>0.001446441828682999</v>
+        <v>8.735364493973003E-08</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.369946853309931</v>
+        <v>0.4541726666666667</v>
       </c>
       <c r="H4">
-        <v>0.369946853309931</v>
+        <v>1.362518</v>
       </c>
       <c r="I4">
-        <v>0.004480245833754927</v>
+        <v>0.005326894406580251</v>
       </c>
       <c r="J4">
-        <v>0.004480245833754927</v>
+        <v>0.00532689440658025</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>173.000693656401</v>
+        <v>153.646004</v>
       </c>
       <c r="N4">
-        <v>173.000693656401</v>
+        <v>460.938012</v>
       </c>
       <c r="O4">
-        <v>0.5925272565174708</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="P4">
-        <v>0.5925272565174708</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="Q4">
-        <v>64.00106223862089</v>
+        <v>69.78181535935734</v>
       </c>
       <c r="R4">
-        <v>64.00106223862089</v>
+        <v>628.036338234216</v>
       </c>
       <c r="S4">
-        <v>0.002654667772398636</v>
+        <v>0.002021722004392099</v>
       </c>
       <c r="T4">
-        <v>0.002654667772398636</v>
+        <v>0.002021722004392098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.369946853309931</v>
+        <v>0.4541726666666667</v>
       </c>
       <c r="H5">
-        <v>0.369946853309931</v>
+        <v>1.362518</v>
       </c>
       <c r="I5">
-        <v>0.004480245833754927</v>
+        <v>0.005326894406580251</v>
       </c>
       <c r="J5">
-        <v>0.004480245833754927</v>
+        <v>0.00532689440658025</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.6258879841602</v>
+        <v>224.6466153333333</v>
       </c>
       <c r="N5">
-        <v>24.6258879841602</v>
+        <v>673.939846</v>
       </c>
       <c r="O5">
-        <v>0.08434364937022384</v>
+        <v>0.5549143553507024</v>
       </c>
       <c r="P5">
-        <v>0.08434364937022384</v>
+        <v>0.5549143553507023</v>
       </c>
       <c r="Q5">
-        <v>9.110269769702906</v>
+        <v>102.0283523435809</v>
       </c>
       <c r="R5">
-        <v>9.110269769702906</v>
+        <v>918.255171092228</v>
       </c>
       <c r="S5">
-        <v>0.0003778802836946317</v>
+        <v>0.002955970175648743</v>
       </c>
       <c r="T5">
-        <v>0.0003778802836946317</v>
+        <v>0.002955970175648741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.8774527970927</v>
+        <v>0.4541726666666667</v>
       </c>
       <c r="H6">
-        <v>75.8774527970927</v>
+        <v>1.362518</v>
       </c>
       <c r="I6">
-        <v>0.9189148082449307</v>
+        <v>0.005326894406580251</v>
       </c>
       <c r="J6">
-        <v>0.9189148082449307</v>
+        <v>0.00532689440658025</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0818483001015924</v>
+        <v>26.38673933333333</v>
       </c>
       <c r="N6">
-        <v>0.0818483001015924</v>
+        <v>79.160218</v>
       </c>
       <c r="O6">
-        <v>0.0002803303714269286</v>
+        <v>0.06517961744154104</v>
       </c>
       <c r="P6">
-        <v>0.0002803303714269286</v>
+        <v>0.06517961744154101</v>
       </c>
       <c r="Q6">
-        <v>6.210440527480855</v>
+        <v>11.98413576765823</v>
       </c>
       <c r="R6">
-        <v>6.210440527480855</v>
+        <v>107.857221908924</v>
       </c>
       <c r="S6">
-        <v>0.0002575997295050063</v>
+        <v>0.0003472049395723855</v>
       </c>
       <c r="T6">
-        <v>0.0002575997295050063</v>
+        <v>0.0003472049395723853</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.8774527970927</v>
+        <v>0.4541726666666667</v>
       </c>
       <c r="H7">
-        <v>75.8774527970927</v>
+        <v>1.362518</v>
       </c>
       <c r="I7">
-        <v>0.9189148082449307</v>
+        <v>0.005326894406580251</v>
       </c>
       <c r="J7">
-        <v>0.9189148082449307</v>
+        <v>0.00532689440658025</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>94.2624317428959</v>
+        <v>0.02990166666666667</v>
       </c>
       <c r="N7">
-        <v>94.2624317428959</v>
+        <v>0.08970500000000001</v>
       </c>
       <c r="O7">
-        <v>0.3228487637408783</v>
+        <v>7.386207024585807E-05</v>
       </c>
       <c r="P7">
-        <v>0.3228487637408783</v>
+        <v>7.386207024585805E-05</v>
       </c>
       <c r="Q7">
-        <v>7152.393215110757</v>
+        <v>0.01358051968777778</v>
       </c>
       <c r="R7">
-        <v>7152.393215110757</v>
+        <v>0.12222467719</v>
       </c>
       <c r="S7">
-        <v>0.2966705098250621</v>
+        <v>3.93455448851099E-07</v>
       </c>
       <c r="T7">
-        <v>0.2966705098250621</v>
+        <v>3.934554488510987E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.8774527970927</v>
+        <v>76.49331166666667</v>
       </c>
       <c r="H8">
-        <v>75.8774527970927</v>
+        <v>229.479935</v>
       </c>
       <c r="I8">
-        <v>0.9189148082449307</v>
+        <v>0.8971737490248932</v>
       </c>
       <c r="J8">
-        <v>0.9189148082449307</v>
+        <v>0.8971737490248931</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>173.000693656401</v>
+        <v>0.1152486666666667</v>
       </c>
       <c r="N8">
-        <v>173.000693656401</v>
+        <v>0.345746</v>
       </c>
       <c r="O8">
-        <v>0.5925272565174708</v>
+        <v>0.0002846832990270826</v>
       </c>
       <c r="P8">
-        <v>0.5925272565174708</v>
+        <v>0.0002846832990270825</v>
       </c>
       <c r="Q8">
-        <v>13126.85196677786</v>
+        <v>8.815752178501112</v>
       </c>
       <c r="R8">
-        <v>13126.85196677786</v>
+        <v>79.34176960651</v>
       </c>
       <c r="S8">
-        <v>0.5444820703026466</v>
+        <v>0.0002554103826729024</v>
       </c>
       <c r="T8">
-        <v>0.5444820703026466</v>
+        <v>0.0002554103826729023</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,557 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.8774527970927</v>
+        <v>76.49331166666667</v>
       </c>
       <c r="H9">
-        <v>75.8774527970927</v>
+        <v>229.479935</v>
       </c>
       <c r="I9">
-        <v>0.9189148082449307</v>
+        <v>0.8971737490248932</v>
       </c>
       <c r="J9">
-        <v>0.9189148082449307</v>
+        <v>0.8971737490248931</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>24.6258879841602</v>
+        <v>0.006638666666666667</v>
       </c>
       <c r="N9">
-        <v>24.6258879841602</v>
+        <v>0.019916</v>
       </c>
       <c r="O9">
-        <v>0.08434364937022384</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="P9">
-        <v>0.08434364937022384</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="Q9">
-        <v>1868.549653104608</v>
+        <v>0.5078135983844445</v>
       </c>
       <c r="R9">
-        <v>1868.549653104608</v>
+        <v>4.57032238546</v>
       </c>
       <c r="S9">
-        <v>0.07750462838771691</v>
+        <v>1.471239922172209E-05</v>
       </c>
       <c r="T9">
-        <v>0.07750462838771691</v>
+        <v>1.471239922172208E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.937972574872989</v>
+        <v>76.49331166666667</v>
       </c>
       <c r="H10">
-        <v>0.937972574872989</v>
+        <v>229.479935</v>
       </c>
       <c r="I10">
-        <v>0.01135932819309719</v>
+        <v>0.8971737490248932</v>
       </c>
       <c r="J10">
-        <v>0.01135932819309719</v>
+        <v>0.8971737490248931</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0818483001015924</v>
+        <v>153.646004</v>
       </c>
       <c r="N10">
-        <v>0.0818483001015924</v>
+        <v>460.938012</v>
       </c>
       <c r="O10">
-        <v>0.0002803303714269286</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="P10">
-        <v>0.0002803303714269286</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="Q10">
-        <v>0.07677146079526775</v>
+        <v>11752.89167030991</v>
       </c>
       <c r="R10">
-        <v>0.07677146079526775</v>
+        <v>105776.0250327892</v>
       </c>
       <c r="S10">
-        <v>3.184364691531317E-06</v>
+        <v>0.3405053248147683</v>
       </c>
       <c r="T10">
-        <v>3.184364691531317E-06</v>
+        <v>0.3405053248147682</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.937972574872989</v>
+        <v>76.49331166666667</v>
       </c>
       <c r="H11">
-        <v>0.937972574872989</v>
+        <v>229.479935</v>
       </c>
       <c r="I11">
-        <v>0.01135932819309719</v>
+        <v>0.8971737490248932</v>
       </c>
       <c r="J11">
-        <v>0.01135932819309719</v>
+        <v>0.8971737490248931</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>94.2624317428959</v>
+        <v>224.6466153333333</v>
       </c>
       <c r="N11">
-        <v>94.2624317428959</v>
+        <v>673.939846</v>
       </c>
       <c r="O11">
-        <v>0.3228487637408783</v>
+        <v>0.5549143553507024</v>
       </c>
       <c r="P11">
-        <v>0.3228487637408783</v>
+        <v>0.5549143553507023</v>
       </c>
       <c r="Q11">
-        <v>88.41557581567344</v>
+        <v>17183.96356155445</v>
       </c>
       <c r="R11">
-        <v>88.41557581567344</v>
+        <v>154655.67205399</v>
       </c>
       <c r="S11">
-        <v>0.003667345064068333</v>
+        <v>0.4978545925777215</v>
       </c>
       <c r="T11">
-        <v>0.003667345064068333</v>
+        <v>0.4978545925777214</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.937972574872989</v>
+        <v>76.49331166666667</v>
       </c>
       <c r="H12">
-        <v>0.937972574872989</v>
+        <v>229.479935</v>
       </c>
       <c r="I12">
-        <v>0.01135932819309719</v>
+        <v>0.8971737490248932</v>
       </c>
       <c r="J12">
-        <v>0.01135932819309719</v>
+        <v>0.8971737490248931</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>173.000693656401</v>
+        <v>26.38673933333333</v>
       </c>
       <c r="N12">
-        <v>173.000693656401</v>
+        <v>79.160218</v>
       </c>
       <c r="O12">
-        <v>0.5925272565174708</v>
+        <v>0.06517961744154104</v>
       </c>
       <c r="P12">
-        <v>0.5925272565174708</v>
+        <v>0.06517961744154101</v>
       </c>
       <c r="Q12">
-        <v>162.2699060837076</v>
+        <v>2018.409075691759</v>
       </c>
       <c r="R12">
-        <v>162.2699060837076</v>
+        <v>18165.68168122583</v>
       </c>
       <c r="S12">
-        <v>0.006730711570137439</v>
+        <v>0.05847744174003569</v>
       </c>
       <c r="T12">
-        <v>0.006730711570137439</v>
+        <v>0.05847744174003566</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.937972574872989</v>
+        <v>76.49331166666667</v>
       </c>
       <c r="H13">
-        <v>0.937972574872989</v>
+        <v>229.479935</v>
       </c>
       <c r="I13">
-        <v>0.01135932819309719</v>
+        <v>0.8971737490248932</v>
       </c>
       <c r="J13">
-        <v>0.01135932819309719</v>
+        <v>0.8971737490248931</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>24.6258879841602</v>
+        <v>0.02990166666666667</v>
       </c>
       <c r="N13">
-        <v>24.6258879841602</v>
+        <v>0.08970500000000001</v>
       </c>
       <c r="O13">
-        <v>0.08434364937022384</v>
+        <v>7.386207024585807E-05</v>
       </c>
       <c r="P13">
-        <v>0.08434364937022384</v>
+        <v>7.386207024585805E-05</v>
       </c>
       <c r="Q13">
-        <v>23.09840756103655</v>
+        <v>2.287277507686111</v>
       </c>
       <c r="R13">
-        <v>23.09840756103655</v>
+        <v>20.585497569175</v>
       </c>
       <c r="S13">
-        <v>0.000958087194199888</v>
+        <v>6.626711047321651E-05</v>
       </c>
       <c r="T13">
-        <v>0.000958087194199888</v>
+        <v>6.626711047321647E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.38751931623066</v>
+        <v>1.292554666666667</v>
       </c>
       <c r="H14">
-        <v>5.38751931623066</v>
+        <v>3.877664</v>
       </c>
       <c r="I14">
-        <v>0.06524561772821721</v>
+        <v>0.01516009819481108</v>
       </c>
       <c r="J14">
-        <v>0.06524561772821721</v>
+        <v>0.01516009819481108</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0818483001015924</v>
+        <v>0.1152486666666667</v>
       </c>
       <c r="N14">
-        <v>0.0818483001015924</v>
+        <v>0.345746</v>
       </c>
       <c r="O14">
-        <v>0.0002803303714269286</v>
+        <v>0.0002846832990270826</v>
       </c>
       <c r="P14">
-        <v>0.0002803303714269286</v>
+        <v>0.0002846832990270825</v>
       </c>
       <c r="Q14">
-        <v>0.4409592977979729</v>
+        <v>0.1489652019271111</v>
       </c>
       <c r="R14">
-        <v>0.4409592977979729</v>
+        <v>1.340686817344</v>
       </c>
       <c r="S14">
-        <v>1.829032825173053E-05</v>
+        <v>4.315826767673337E-06</v>
       </c>
       <c r="T14">
-        <v>1.829032825173053E-05</v>
+        <v>4.315826767673335E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.38751931623066</v>
+        <v>1.292554666666667</v>
       </c>
       <c r="H15">
-        <v>5.38751931623066</v>
+        <v>3.877664</v>
       </c>
       <c r="I15">
-        <v>0.06524561772821721</v>
+        <v>0.01516009819481108</v>
       </c>
       <c r="J15">
-        <v>0.06524561772821721</v>
+        <v>0.01516009819481108</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>94.2624317428959</v>
+        <v>0.006638666666666667</v>
       </c>
       <c r="N15">
-        <v>94.2624317428959</v>
+        <v>0.019916</v>
       </c>
       <c r="O15">
-        <v>0.3228487637408783</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="P15">
-        <v>0.3228487637408783</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="Q15">
-        <v>507.8406718097257</v>
+        <v>0.008580839580444446</v>
       </c>
       <c r="R15">
-        <v>507.8406718097257</v>
+        <v>0.077227556224</v>
       </c>
       <c r="S15">
-        <v>0.02106446702306486</v>
+        <v>2.486044839419174E-07</v>
       </c>
       <c r="T15">
-        <v>0.02106446702306486</v>
+        <v>2.486044839419173E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.38751931623066</v>
+        <v>1.292554666666667</v>
       </c>
       <c r="H16">
-        <v>5.38751931623066</v>
+        <v>3.877664</v>
       </c>
       <c r="I16">
-        <v>0.06524561772821721</v>
+        <v>0.01516009819481108</v>
       </c>
       <c r="J16">
-        <v>0.06524561772821721</v>
+        <v>0.01516009819481108</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>173.000693656401</v>
+        <v>153.646004</v>
       </c>
       <c r="N16">
-        <v>173.000693656401</v>
+        <v>460.938012</v>
       </c>
       <c r="O16">
-        <v>0.5925272565174708</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="P16">
-        <v>0.5925272565174708</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="Q16">
-        <v>932.0445787951634</v>
+        <v>198.5958594848854</v>
       </c>
       <c r="R16">
-        <v>932.0445787951634</v>
+        <v>1787.362735363968</v>
       </c>
       <c r="S16">
-        <v>0.0386598068722882</v>
+        <v>0.005753728489780746</v>
       </c>
       <c r="T16">
-        <v>0.0386598068722882</v>
+        <v>0.005753728489780744</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.292554666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.877664</v>
+      </c>
+      <c r="I17">
+        <v>0.01516009819481108</v>
+      </c>
+      <c r="J17">
+        <v>0.01516009819481108</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>224.6466153333333</v>
+      </c>
+      <c r="N17">
+        <v>673.939846</v>
+      </c>
+      <c r="O17">
+        <v>0.5549143553507024</v>
+      </c>
+      <c r="P17">
+        <v>0.5549143553507023</v>
+      </c>
+      <c r="Q17">
+        <v>290.3680309999716</v>
+      </c>
+      <c r="R17">
+        <v>2613.312278999744</v>
+      </c>
+      <c r="S17">
+        <v>0.008412556116826937</v>
+      </c>
+      <c r="T17">
+        <v>0.008412556116826933</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.292554666666667</v>
+      </c>
+      <c r="H18">
+        <v>3.877664</v>
+      </c>
+      <c r="I18">
+        <v>0.01516009819481108</v>
+      </c>
+      <c r="J18">
+        <v>0.01516009819481108</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>26.38673933333333</v>
+      </c>
+      <c r="N18">
+        <v>79.160218</v>
+      </c>
+      <c r="O18">
+        <v>0.06517961744154104</v>
+      </c>
+      <c r="P18">
+        <v>0.06517961744154101</v>
+      </c>
+      <c r="Q18">
+        <v>34.1063030634169</v>
+      </c>
+      <c r="R18">
+        <v>306.956727570752</v>
+      </c>
+      <c r="S18">
+        <v>0.000988129400713983</v>
+      </c>
+      <c r="T18">
+        <v>0.0009881294007139823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>5.38751931623066</v>
-      </c>
-      <c r="H17">
-        <v>5.38751931623066</v>
-      </c>
-      <c r="I17">
-        <v>0.06524561772821721</v>
-      </c>
-      <c r="J17">
-        <v>0.06524561772821721</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>24.6258879841602</v>
-      </c>
-      <c r="N17">
-        <v>24.6258879841602</v>
-      </c>
-      <c r="O17">
-        <v>0.08434364937022384</v>
-      </c>
-      <c r="P17">
-        <v>0.08434364937022384</v>
-      </c>
-      <c r="Q17">
-        <v>132.6724471939956</v>
-      </c>
-      <c r="R17">
-        <v>132.6724471939956</v>
-      </c>
-      <c r="S17">
-        <v>0.005503053504612413</v>
-      </c>
-      <c r="T17">
-        <v>0.005503053504612413</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.292554666666667</v>
+      </c>
+      <c r="H19">
+        <v>3.877664</v>
+      </c>
+      <c r="I19">
+        <v>0.01516009819481108</v>
+      </c>
+      <c r="J19">
+        <v>0.01516009819481108</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.02990166666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.08970500000000001</v>
+      </c>
+      <c r="O19">
+        <v>7.386207024585807E-05</v>
+      </c>
+      <c r="P19">
+        <v>7.386207024585805E-05</v>
+      </c>
+      <c r="Q19">
+        <v>0.03864953879111112</v>
+      </c>
+      <c r="R19">
+        <v>0.3478458491200001</v>
+      </c>
+      <c r="S19">
+        <v>1.119756237799242E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.119756237799241E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.9628836666666668</v>
+      </c>
+      <c r="H20">
+        <v>2.888651</v>
+      </c>
+      <c r="I20">
+        <v>0.01129345730072003</v>
+      </c>
+      <c r="J20">
+        <v>0.01129345730072002</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1152486666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.345746</v>
+      </c>
+      <c r="O20">
+        <v>0.0002846832990270826</v>
+      </c>
+      <c r="P20">
+        <v>0.0002846832990270825</v>
+      </c>
+      <c r="Q20">
+        <v>0.1109710587384445</v>
+      </c>
+      <c r="R20">
+        <v>0.9987395286460001</v>
+      </c>
+      <c r="S20">
+        <v>3.215058681790468E-06</v>
+      </c>
+      <c r="T20">
+        <v>3.215058681790466E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.9628836666666668</v>
+      </c>
+      <c r="H21">
+        <v>2.888651</v>
+      </c>
+      <c r="I21">
+        <v>0.01129345730072003</v>
+      </c>
+      <c r="J21">
+        <v>0.01129345730072002</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.006638666666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.019916</v>
+      </c>
+      <c r="O21">
+        <v>1.63986064435261E-05</v>
+      </c>
+      <c r="P21">
+        <v>1.63986064435261E-05</v>
+      </c>
+      <c r="Q21">
+        <v>0.006392263701777779</v>
+      </c>
+      <c r="R21">
+        <v>0.05753037331600001</v>
+      </c>
+      <c r="S21">
+        <v>1.851969616612744E-07</v>
+      </c>
+      <c r="T21">
+        <v>1.851969616612743E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.9628836666666668</v>
+      </c>
+      <c r="H22">
+        <v>2.888651</v>
+      </c>
+      <c r="I22">
+        <v>0.01129345730072003</v>
+      </c>
+      <c r="J22">
+        <v>0.01129345730072002</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>153.646004</v>
+      </c>
+      <c r="N22">
+        <v>460.938012</v>
+      </c>
+      <c r="O22">
+        <v>0.3795310832320402</v>
+      </c>
+      <c r="P22">
+        <v>0.3795310832320402</v>
+      </c>
+      <c r="Q22">
+        <v>147.9432277002014</v>
+      </c>
+      <c r="R22">
+        <v>1331.489049301812</v>
+      </c>
+      <c r="S22">
+        <v>0.004286218082777064</v>
+      </c>
+      <c r="T22">
+        <v>0.004286218082777063</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.9628836666666668</v>
+      </c>
+      <c r="H23">
+        <v>2.888651</v>
+      </c>
+      <c r="I23">
+        <v>0.01129345730072003</v>
+      </c>
+      <c r="J23">
+        <v>0.01129345730072002</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>224.6466153333333</v>
+      </c>
+      <c r="N23">
+        <v>673.939846</v>
+      </c>
+      <c r="O23">
+        <v>0.5549143553507024</v>
+      </c>
+      <c r="P23">
+        <v>0.5549143553507023</v>
+      </c>
+      <c r="Q23">
+        <v>216.3085566764163</v>
+      </c>
+      <c r="R23">
+        <v>1946.777010087746</v>
+      </c>
+      <c r="S23">
+        <v>0.006266901577709738</v>
+      </c>
+      <c r="T23">
+        <v>0.006266901577709734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.9628836666666668</v>
+      </c>
+      <c r="H24">
+        <v>2.888651</v>
+      </c>
+      <c r="I24">
+        <v>0.01129345730072003</v>
+      </c>
+      <c r="J24">
+        <v>0.01129345730072002</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>26.38673933333333</v>
+      </c>
+      <c r="N24">
+        <v>79.160218</v>
+      </c>
+      <c r="O24">
+        <v>0.06517961744154104</v>
+      </c>
+      <c r="P24">
+        <v>0.06517961744154101</v>
+      </c>
+      <c r="Q24">
+        <v>25.40736032065756</v>
+      </c>
+      <c r="R24">
+        <v>228.666242885918</v>
+      </c>
+      <c r="S24">
+        <v>0.00073610322645331</v>
+      </c>
+      <c r="T24">
+        <v>0.0007361032264533094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.9628836666666668</v>
+      </c>
+      <c r="H25">
+        <v>2.888651</v>
+      </c>
+      <c r="I25">
+        <v>0.01129345730072003</v>
+      </c>
+      <c r="J25">
+        <v>0.01129345730072002</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.02990166666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.08970500000000001</v>
+      </c>
+      <c r="O25">
+        <v>7.386207024585807E-05</v>
+      </c>
+      <c r="P25">
+        <v>7.386207024585805E-05</v>
+      </c>
+      <c r="Q25">
+        <v>0.02879182643944445</v>
+      </c>
+      <c r="R25">
+        <v>0.2591264379550001</v>
+      </c>
+      <c r="S25">
+        <v>8.341581364643813E-07</v>
+      </c>
+      <c r="T25">
+        <v>8.341581364643808E-07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.2778016666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.833405</v>
+      </c>
+      <c r="I26">
+        <v>0.003258276538670325</v>
+      </c>
+      <c r="J26">
+        <v>0.003258276538670324</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1152486666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.345746</v>
+      </c>
+      <c r="O26">
+        <v>0.0002846832990270826</v>
+      </c>
+      <c r="P26">
+        <v>0.0002846832990270825</v>
+      </c>
+      <c r="Q26">
+        <v>0.03201627168111111</v>
+      </c>
+      <c r="R26">
+        <v>0.28814644513</v>
+      </c>
+      <c r="S26">
+        <v>9.275769141712117E-07</v>
+      </c>
+      <c r="T26">
+        <v>9.275769141712112E-07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.2778016666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.833405</v>
+      </c>
+      <c r="I27">
+        <v>0.003258276538670325</v>
+      </c>
+      <c r="J27">
+        <v>0.003258276538670324</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.006638666666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.019916</v>
+      </c>
+      <c r="O27">
+        <v>1.63986064435261E-05</v>
+      </c>
+      <c r="P27">
+        <v>1.63986064435261E-05</v>
+      </c>
+      <c r="Q27">
+        <v>0.001844232664444444</v>
+      </c>
+      <c r="R27">
+        <v>0.01659809398</v>
+      </c>
+      <c r="S27">
+        <v>5.343119464182912E-08</v>
+      </c>
+      <c r="T27">
+        <v>5.34311946418291E-08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.2778016666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.833405</v>
+      </c>
+      <c r="I28">
+        <v>0.003258276538670325</v>
+      </c>
+      <c r="J28">
+        <v>0.003258276538670324</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>153.646004</v>
+      </c>
+      <c r="N28">
+        <v>460.938012</v>
+      </c>
+      <c r="O28">
+        <v>0.3795310832320402</v>
+      </c>
+      <c r="P28">
+        <v>0.3795310832320402</v>
+      </c>
+      <c r="Q28">
+        <v>42.68311598787334</v>
+      </c>
+      <c r="R28">
+        <v>384.14804389086</v>
+      </c>
+      <c r="S28">
+        <v>0.001236617224191091</v>
+      </c>
+      <c r="T28">
+        <v>0.001236617224191091</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.2778016666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.833405</v>
+      </c>
+      <c r="I29">
+        <v>0.003258276538670325</v>
+      </c>
+      <c r="J29">
+        <v>0.003258276538670324</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>224.6466153333333</v>
+      </c>
+      <c r="N29">
+        <v>673.939846</v>
+      </c>
+      <c r="O29">
+        <v>0.5549143553507024</v>
+      </c>
+      <c r="P29">
+        <v>0.5549143553507023</v>
+      </c>
+      <c r="Q29">
+        <v>62.40720415062555</v>
+      </c>
+      <c r="R29">
+        <v>561.66483735563</v>
+      </c>
+      <c r="S29">
+        <v>0.001808064425010562</v>
+      </c>
+      <c r="T29">
+        <v>0.001808064425010561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.2778016666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.833405</v>
+      </c>
+      <c r="I30">
+        <v>0.003258276538670325</v>
+      </c>
+      <c r="J30">
+        <v>0.003258276538670324</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>26.38673933333333</v>
+      </c>
+      <c r="N30">
+        <v>79.160218</v>
+      </c>
+      <c r="O30">
+        <v>0.06517961744154104</v>
+      </c>
+      <c r="P30">
+        <v>0.06517961744154101</v>
+      </c>
+      <c r="Q30">
+        <v>7.330280164698889</v>
+      </c>
+      <c r="R30">
+        <v>65.97252148228999</v>
+      </c>
+      <c r="S30">
+        <v>0.0002123732183092803</v>
+      </c>
+      <c r="T30">
+        <v>0.0002123732183092801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.2778016666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.833405</v>
+      </c>
+      <c r="I31">
+        <v>0.003258276538670325</v>
+      </c>
+      <c r="J31">
+        <v>0.003258276538670324</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.02990166666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.08970500000000001</v>
+      </c>
+      <c r="O31">
+        <v>7.386207024585807E-05</v>
+      </c>
+      <c r="P31">
+        <v>7.386207024585805E-05</v>
+      </c>
+      <c r="Q31">
+        <v>0.008306732836111112</v>
+      </c>
+      <c r="R31">
+        <v>0.074760595525</v>
+      </c>
+      <c r="S31">
+        <v>2.406630505796989E-07</v>
+      </c>
+      <c r="T31">
+        <v>2.406630505796987E-07</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>5.779585333333333</v>
+      </c>
+      <c r="H32">
+        <v>17.338756</v>
+      </c>
+      <c r="I32">
+        <v>0.06778752453432524</v>
+      </c>
+      <c r="J32">
+        <v>0.06778752453432522</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.1152486666666667</v>
+      </c>
+      <c r="N32">
+        <v>0.345746</v>
+      </c>
+      <c r="O32">
+        <v>0.0002846832990270826</v>
+      </c>
+      <c r="P32">
+        <v>0.0002846832990270825</v>
+      </c>
+      <c r="Q32">
+        <v>0.6660895035528889</v>
+      </c>
+      <c r="R32">
+        <v>5.994805531976</v>
+      </c>
+      <c r="S32">
+        <v>1.929797611731101E-05</v>
+      </c>
+      <c r="T32">
+        <v>1.9297976117311E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>5.779585333333333</v>
+      </c>
+      <c r="H33">
+        <v>17.338756</v>
+      </c>
+      <c r="I33">
+        <v>0.06778752453432524</v>
+      </c>
+      <c r="J33">
+        <v>0.06778752453432522</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.006638666666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.019916</v>
+      </c>
+      <c r="O33">
+        <v>1.63986064435261E-05</v>
+      </c>
+      <c r="P33">
+        <v>1.63986064435261E-05</v>
+      </c>
+      <c r="Q33">
+        <v>0.03836874049955556</v>
+      </c>
+      <c r="R33">
+        <v>0.345318664496</v>
+      </c>
+      <c r="S33">
+        <v>1.11162093661927E-06</v>
+      </c>
+      <c r="T33">
+        <v>1.111620936619269E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>5.779585333333333</v>
+      </c>
+      <c r="H34">
+        <v>17.338756</v>
+      </c>
+      <c r="I34">
+        <v>0.06778752453432524</v>
+      </c>
+      <c r="J34">
+        <v>0.06778752453432522</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>153.646004</v>
+      </c>
+      <c r="N34">
+        <v>460.938012</v>
+      </c>
+      <c r="O34">
+        <v>0.3795310832320402</v>
+      </c>
+      <c r="P34">
+        <v>0.3795310832320402</v>
+      </c>
+      <c r="Q34">
+        <v>888.0101912436747</v>
+      </c>
+      <c r="R34">
+        <v>7992.091721193072</v>
+      </c>
+      <c r="S34">
+        <v>0.02572747261613096</v>
+      </c>
+      <c r="T34">
+        <v>0.02572747261613095</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>5.779585333333333</v>
+      </c>
+      <c r="H35">
+        <v>17.338756</v>
+      </c>
+      <c r="I35">
+        <v>0.06778752453432524</v>
+      </c>
+      <c r="J35">
+        <v>0.06778752453432522</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>224.6466153333333</v>
+      </c>
+      <c r="N35">
+        <v>673.939846</v>
+      </c>
+      <c r="O35">
+        <v>0.5549143553507024</v>
+      </c>
+      <c r="P35">
+        <v>0.5549143553507023</v>
+      </c>
+      <c r="Q35">
+        <v>1298.364283163508</v>
+      </c>
+      <c r="R35">
+        <v>11685.27854847158</v>
+      </c>
+      <c r="S35">
+        <v>0.03761627047778501</v>
+      </c>
+      <c r="T35">
+        <v>0.037616270477785</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>5.779585333333333</v>
+      </c>
+      <c r="H36">
+        <v>17.338756</v>
+      </c>
+      <c r="I36">
+        <v>0.06778752453432524</v>
+      </c>
+      <c r="J36">
+        <v>0.06778752453432522</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>26.38673933333333</v>
+      </c>
+      <c r="N36">
+        <v>79.160218</v>
+      </c>
+      <c r="O36">
+        <v>0.06517961744154104</v>
+      </c>
+      <c r="P36">
+        <v>0.06517961744154101</v>
+      </c>
+      <c r="Q36">
+        <v>152.5044116454231</v>
+      </c>
+      <c r="R36">
+        <v>1372.539704808808</v>
+      </c>
+      <c r="S36">
+        <v>0.004418364916456396</v>
+      </c>
+      <c r="T36">
+        <v>0.004418364916456394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>5.779585333333333</v>
+      </c>
+      <c r="H37">
+        <v>17.338756</v>
+      </c>
+      <c r="I37">
+        <v>0.06778752453432524</v>
+      </c>
+      <c r="J37">
+        <v>0.06778752453432522</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.02990166666666667</v>
+      </c>
+      <c r="N37">
+        <v>0.08970500000000001</v>
+      </c>
+      <c r="O37">
+        <v>7.386207024585807E-05</v>
+      </c>
+      <c r="P37">
+        <v>7.386207024585805E-05</v>
+      </c>
+      <c r="Q37">
+        <v>0.1728192341088889</v>
+      </c>
+      <c r="R37">
+        <v>1.55537310698</v>
+      </c>
+      <c r="S37">
+        <v>5.006926898947158E-06</v>
+      </c>
+      <c r="T37">
+        <v>5.006926898947155E-06</v>
       </c>
     </row>
   </sheetData>
